--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{598406D3-FA2C-488A-A427-44D7F9E61253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3F4369-F4CE-46F3-BF92-15D3777A230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{149B894D-7F10-4F1C-8325-85A86CB87FE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="269">
   <si>
     <t>Crown of the first Necromancer</t>
   </si>
@@ -1259,24 +1259,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F52DBA-E2F9-442E-9904-938B8DB933F5}">
-  <dimension ref="A1:AA1020"/>
+  <dimension ref="A1:O1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A104" activeCellId="3" sqref="A43:XFD43 A76:XFD76 A93:XFD93 A104:XFD104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1559,20 +1560,8 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1602,20 +1591,8 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1645,20 +1622,8 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1688,20 +1653,8 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1731,18 +1684,6 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2472,7 +2413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -2495,7 +2436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>129</v>
       </c>
@@ -2525,20 +2466,8 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -2561,7 +2490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -2574,7 +2503,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>135</v>
       </c>
@@ -2597,7 +2526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
@@ -2607,7 +2536,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2617,7 +2546,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -2628,7 +2557,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
@@ -2648,7 +2577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -2668,7 +2597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
@@ -2685,7 +2614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2705,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
@@ -2725,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2745,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
@@ -2768,7 +2697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>158</v>
       </c>
@@ -2791,7 +2720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
@@ -2808,7 +2737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>165</v>
       </c>
@@ -2833,21 +2762,9 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="9"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>167</v>
       </c>
@@ -2868,7 +2785,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>169</v>
       </c>
@@ -2898,20 +2815,8 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
@@ -2932,7 +2837,7 @@
       </c>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>172</v>
       </c>
@@ -2952,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -2966,7 +2871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>176</v>
       </c>
@@ -2976,7 +2881,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>178</v>
       </c>
@@ -2999,7 +2904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>180</v>
       </c>
@@ -3019,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>182</v>
       </c>
@@ -3039,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>184</v>
       </c>
@@ -3059,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>186</v>
       </c>
@@ -3082,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>188</v>
       </c>
@@ -3099,40 +3004,14 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O78" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q78" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="R78" s="3"/>
-      <c r="S78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
@@ -3146,7 +3025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
@@ -3166,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
@@ -3180,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>197</v>
       </c>
@@ -3200,7 +3079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
@@ -3220,7 +3099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>201</v>
       </c>
@@ -3240,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>203</v>
       </c>
@@ -3268,20 +3147,8 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>205</v>
       </c>
@@ -3303,20 +3170,8 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="13"/>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -3336,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -3356,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -3379,7 +3234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -3399,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -3417,10 +3272,8 @@
         <v>122</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>216</v>
       </c>
@@ -3437,7 +3290,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>217</v>
       </c>
@@ -3454,7 +3307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>218</v>
       </c>
@@ -3471,7 +3324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>220</v>
       </c>
@@ -3488,7 +3341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>

--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3F4369-F4CE-46F3-BF92-15D3777A230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED30AB5-A12A-4713-967C-189113A39609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{149B894D-7F10-4F1C-8325-85A86CB87FE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="269">
   <si>
     <t>Crown of the first Necromancer</t>
   </si>
@@ -1261,15 +1261,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F52DBA-E2F9-442E-9904-938B8DB933F5}">
   <dimension ref="A1:O1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
@@ -3004,12 +3004,8 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">

--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED30AB5-A12A-4713-967C-189113A39609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42506FCA-3F0E-4C98-9AF9-7A3E5D90C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{149B894D-7F10-4F1C-8325-85A86CB87FE8}"/>
   </bookViews>
@@ -872,7 +872,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,12 +883,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
@@ -910,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,17 +926,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1259,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F52DBA-E2F9-442E-9904-938B8DB933F5}">
-  <dimension ref="A1:O1020"/>
+  <dimension ref="A1:G1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,11 +1264,10 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="15" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1552,16 +1542,8 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,16 +1565,8 @@
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1614,16 +1588,8 @@
       <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1645,16 +1611,8 @@
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1676,14 +1634,6 @@
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2413,7 +2363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -2436,7 +2386,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>129</v>
       </c>
@@ -2458,16 +2408,8 @@
       <c r="G50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -2490,7 +2432,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -2503,7 +2445,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>135</v>
       </c>
@@ -2526,7 +2468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
@@ -2536,7 +2478,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2546,7 +2488,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>141</v>
       </c>
@@ -2557,7 +2499,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
@@ -2577,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -2597,7 +2539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
@@ -2614,7 +2556,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2634,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
@@ -2654,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2674,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
@@ -2697,7 +2639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>158</v>
       </c>
@@ -2720,7 +2662,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
@@ -2737,7 +2679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>165</v>
       </c>
@@ -2755,16 +2697,8 @@
         <v>4</v>
       </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>167</v>
       </c>
@@ -2785,7 +2719,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>169</v>
       </c>
@@ -2807,16 +2741,8 @@
       <c r="G68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
@@ -2837,7 +2763,7 @@
       </c>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>172</v>
       </c>
@@ -2857,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -2871,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>176</v>
       </c>
@@ -2881,7 +2807,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>178</v>
       </c>
@@ -2904,7 +2830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>180</v>
       </c>
@@ -2924,7 +2850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>182</v>
       </c>
@@ -2944,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>184</v>
       </c>
@@ -2964,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>186</v>
       </c>
@@ -2987,11 +2913,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>189</v>
       </c>
       <c r="D78" s="3"/>
@@ -3004,10 +2930,8 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
@@ -3021,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
@@ -3041,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
@@ -3055,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>197</v>
       </c>
@@ -3075,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
@@ -3095,7 +3019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>201</v>
       </c>
@@ -3115,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>203</v>
       </c>
@@ -3135,39 +3059,23 @@
         <v>4</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -3187,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -3207,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -3230,7 +3138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -3250,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -3267,9 +3175,8 @@
       <c r="G91" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>216</v>
       </c>
@@ -3286,7 +3193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>217</v>
       </c>
@@ -3303,7 +3210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>218</v>
       </c>
@@ -3320,7 +3227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>220</v>
       </c>
@@ -3337,7 +3244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>

--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741E09BE-514B-4D33-8AF2-E4286EFADA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA15D3D4-892E-4114-93CB-5FB386D9C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C865537F-C3D8-4460-933C-19A02B2E1811}"/>
   </bookViews>
@@ -1259,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685347F5-B374-458E-B3E6-C430DE0EE1B9}">
-  <dimension ref="A1:AA1081"/>
+  <dimension ref="A1:G1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G147"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,10 +1273,9 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1390,28 +1389,8 @@
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1433,28 +1412,8 @@
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1476,28 +1435,8 @@
       <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1543,7 +1482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1588,28 +1527,8 @@
       <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1632,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1655,7 +1574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1678,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1700,28 +1619,8 @@
       <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
@@ -1744,7 +1643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1767,7 +1666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +1689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1812,28 +1711,8 @@
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1856,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
@@ -1879,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1902,7 +1781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1925,7 +1804,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1948,7 +1827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1971,7 +1850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1994,7 +1873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2017,7 +1896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -2040,7 +1919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -2063,7 +1942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -2086,7 +1965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -2109,7 +1988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -2131,9 +2010,8 @@
       <c r="G32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -2156,7 +2034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -2202,7 +2080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -2225,7 +2103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -2248,7 +2126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>108</v>
       </c>
@@ -2271,7 +2149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
@@ -2294,7 +2172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
@@ -2317,7 +2195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>114</v>
       </c>
@@ -2340,7 +2218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
@@ -2363,7 +2241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>119</v>
       </c>
@@ -2384,7 +2262,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -2405,7 +2283,7 @@
       </c>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -2426,7 +2304,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -2446,28 +2324,8 @@
         <v>13</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -2490,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>130</v>
       </c>
@@ -2513,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>132</v>
       </c>
@@ -2536,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>136</v>
       </c>
@@ -2559,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>138</v>
       </c>
@@ -2582,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>140</v>
       </c>
@@ -2595,7 +2453,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>142</v>
       </c>
@@ -2618,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>145</v>
       </c>
@@ -2628,7 +2486,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>146</v>
       </c>
@@ -2638,7 +2496,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>147</v>
       </c>
@@ -2649,7 +2507,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>148</v>
       </c>
@@ -2669,7 +2527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>150</v>
       </c>
@@ -2689,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>152</v>
       </c>
@@ -2706,7 +2564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>155</v>
       </c>
@@ -2725,28 +2583,8 @@
       <c r="F60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>158</v>
       </c>
@@ -2765,28 +2603,8 @@
       <c r="F61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>160</v>
       </c>
@@ -2806,7 +2624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
@@ -2829,7 +2647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>164</v>
       </c>
@@ -3451,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>227</v>
       </c>
@@ -3468,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>229</v>
       </c>
@@ -3485,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>231</v>
       </c>
@@ -3504,7 +3322,7 @@
       </c>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>234</v>
       </c>
@@ -3521,13 +3339,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>236</v>
       </c>
@@ -3535,7 +3353,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>237</v>
       </c>
@@ -3544,7 +3362,7 @@
       <c r="D103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>238</v>
       </c>
@@ -3552,214 +3370,74 @@
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
       <c r="F104" s="3"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D107" s="4"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-    </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>242</v>
       </c>
       <c r="D108" s="4"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>243</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>245</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
-    </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>246</v>
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>247</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-      <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-    </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D114" s="4"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>249</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
-    </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>250</v>
       </c>
@@ -3769,7 +3447,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>252</v>
       </c>
@@ -3778,7 +3456,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>254</v>
       </c>
@@ -3791,28 +3469,8 @@
       <c r="F118" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
-      <c r="AA118" s="8"/>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>167</v>
       </c>
@@ -3828,28 +3486,8 @@
       <c r="F119" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>257</v>
       </c>
@@ -3863,35 +3501,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="8"/>
-      <c r="Y121" s="8"/>
-      <c r="Z121" s="8"/>
-      <c r="AA121" s="8"/>
-    </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>260</v>
       </c>
@@ -3904,28 +3522,8 @@
       <c r="D122" s="4">
         <v>10</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>262</v>
       </c>
@@ -3933,7 +3531,7 @@
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>263</v>
       </c>
@@ -3947,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>265</v>
       </c>
@@ -3961,7 +3559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>267</v>
       </c>
@@ -3975,7 +3573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>269</v>
       </c>
@@ -3983,7 +3581,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>270</v>
       </c>
@@ -6857,7 +6455,7 @@
       <c r="D1081" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AA148">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G148">
     <sortCondition ref="A1:A148"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA15D3D4-892E-4114-93CB-5FB386D9C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E011F0A-6C49-4A95-B071-DAAEBA7EC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C865537F-C3D8-4460-933C-19A02B2E1811}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:G1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/billionaires.xlsx
+++ b/billionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E011F0A-6C49-4A95-B071-DAAEBA7EC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2D36B-E7CD-4035-82E6-38B8D732F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C865537F-C3D8-4460-933C-19A02B2E1811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="292">
   <si>
     <t>2,5h+</t>
   </si>
@@ -57,9 +57,6 @@
     <t>3-5m</t>
   </si>
   <si>
-    <t>2-4m</t>
-  </si>
-  <si>
     <t>5-10m</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>500k-1m</t>
   </si>
   <si>
-    <t>Zuriels staff</t>
-  </si>
-  <si>
-    <t>Zstaff</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -850,6 +841,75 @@
   </si>
   <si>
     <t>vor scale</t>
+  </si>
+  <si>
+    <t>Hex bow</t>
+  </si>
+  <si>
+    <t>MW Staff</t>
+  </si>
+  <si>
+    <t>MW 2h</t>
+  </si>
+  <si>
+    <t>Sash brush</t>
+  </si>
+  <si>
+    <t>Croes torch</t>
+  </si>
+  <si>
+    <t>Croes sack</t>
+  </si>
+  <si>
+    <t>Croes hammer</t>
+  </si>
+  <si>
+    <t>Sou prayer codex</t>
+  </si>
+  <si>
+    <t>Esirenic patch</t>
+  </si>
+  <si>
+    <t>Etech Patch</t>
+  </si>
+  <si>
+    <t>Agony</t>
+  </si>
+  <si>
+    <t>Affliction</t>
+  </si>
+  <si>
+    <t>Dispelling</t>
+  </si>
+  <si>
+    <t>Dread</t>
+  </si>
+  <si>
+    <t>Flames</t>
+  </si>
+  <si>
+    <t>Shadows</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Flaming sword</t>
+  </si>
+  <si>
+    <t>Amascut script</t>
+  </si>
+  <si>
+    <t>Elid</t>
+  </si>
+  <si>
+    <t>Shadow spike</t>
   </si>
 </sst>
 </file>
@@ -913,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -945,6 +1005,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1259,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685347F5-B374-458E-B3E6-C430DE0EE1B9}">
-  <dimension ref="A1:G1081"/>
+  <dimension ref="A1:G1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1277,10 +1338,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -1289,1910 +1350,1705 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
         <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4">
         <v>100</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4">
         <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
+      <c r="D14" s="4">
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>100</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4">
         <v>100</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4">
         <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4">
         <v>100</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D28" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4">
         <v>100</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4">
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="4">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="4">
-        <v>10</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="4">
-        <v>10</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="4">
+        <v>246</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="4">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="4"/>
       <c r="F53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>13</v>
+      <c r="F57" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>3</v>
+        <v>192</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D59" s="4">
         <v>2</v>
       </c>
+      <c r="E59" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F59" s="3" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>13</v>
+        <v>196</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>13</v>
+      <c r="E61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>13</v>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>76</v>
+      <c r="E63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="A64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2">
         <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4">
         <v>2</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="7">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="A68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>76</v>
+      <c r="D68" s="4"/>
+      <c r="F68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="6"/>
+      <c r="A69" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>13</v>
+      <c r="E70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D71" s="4">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>13</v>
+      <c r="E74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>13</v>
+      <c r="E75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D76" s="4">
         <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D77" s="4">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="4"/>
+      <c r="A78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
       <c r="E78" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D80" s="4">
         <v>2</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>13</v>
+      <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="D83" s="4">
         <v>2</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>13</v>
+      <c r="E83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>13</v>
+      <c r="E84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="A85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="4">
         <v>2</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="1"/>
+      <c r="E85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="12"/>
+      <c r="A86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D87" s="4">
         <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>13</v>
+      <c r="E88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D89" s="4">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D90" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
@@ -3203,13 +3059,13 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -3220,373 +3076,651 @@
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
       </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
       </c>
+      <c r="E96" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F96" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D97" s="4">
         <v>2</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="D99" s="4">
-        <v>2</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
-      <c r="F103" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
-      <c r="F104" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="4"/>
+      <c r="A106" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D108" s="4"/>
+      <c r="A108" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7">
+        <v>2</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="3"/>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D111" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="7">
+        <v>2</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="4">
+        <v>2</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F117" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>255</v>
+        <v>100</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D118" s="4">
         <v>2</v>
       </c>
+      <c r="E118" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F118" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D119" s="4">
         <v>2</v>
       </c>
+      <c r="E119" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F119" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D120" s="4">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D122" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D125" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3635,60 +3769,40 @@
     <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="4">
-        <v>10</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6451,12 +6565,9 @@
     <row r="1080" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1080" s="4"/>
     </row>
-    <row r="1081" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1081" s="4"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G148">
-    <sortCondition ref="A1:A148"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G128">
+    <sortCondition ref="A31:A128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
